--- a/docs/station4/テスト設計書.xlsx
+++ b/docs/station4/テスト設計書.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12960"/>
+    <workbookView windowWidth="28800" windowHeight="12960" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="認証機能" sheetId="1" r:id="rId1"/>
+    <sheet name="検索機能" sheetId="2" r:id="rId2"/>
+    <sheet name="マップ機能" sheetId="3" r:id="rId3"/>
+    <sheet name="投稿作成機能" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -44,25 +47,39 @@
     <t>期待結果</t>
   </si>
   <si>
+    <t>確認状態</t>
+  </si>
+  <si>
     <t>優先度</t>
   </si>
   <si>
+    <t>新規会員登録</t>
+  </si>
+  <si>
     <t>UT-001</t>
   </si>
   <si>
     <t>正常登録</t>
   </si>
   <si>
-    <t>未登録のメールアドレス</t>
+    <t>・未登録のメールアドレス
+・パスワード強度が基準を満たす
+・未登録のユーザーID</t>
   </si>
   <si>
     <t>1.ユーザー登録画面を開く
-2.必須項目を入力
-3.登録ボタンを押す</t>
+2.必須項目(メール、パスワード)を入力
+3.次へ進むボタンを押す
+4.必要項目(ユーザーID)を入力
+5.登録ボタンを押す</t>
   </si>
   <si>
     <t>・登録完了
-・完了メッセージ表示</t>
+・完了メッセージ表示
+・ログイン画面へ移行</t>
+  </si>
+  <si>
+    <t>正常系</t>
   </si>
   <si>
     <t>高</t>
@@ -71,10 +88,16 @@
     <t>UT-002</t>
   </si>
   <si>
+    <t>・任意フィールドが空</t>
+  </si>
+  <si>
+    <t>UT-003</t>
+  </si>
+  <si>
     <t>メール重複</t>
   </si>
   <si>
-    <t>登録済のメールアドレス</t>
+    <t>・登録済のメールアドレス</t>
   </si>
   <si>
     <t>1.ユーザー登録画面を開く
@@ -83,6 +106,281 @@
   <si>
     <t>・エラーメッセージ表示
 ・登録失敗</t>
+  </si>
+  <si>
+    <t>異常系</t>
+  </si>
+  <si>
+    <t>UT-004</t>
+  </si>
+  <si>
+    <t>メール形式の不備</t>
+  </si>
+  <si>
+    <t>・@や . が抜けている</t>
+  </si>
+  <si>
+    <t>1.ユーザー登録画面を開く
+2.不備メールアドレスで登録</t>
+  </si>
+  <si>
+    <t>・エラーメッセージ表示</t>
+  </si>
+  <si>
+    <t>UT-005</t>
+  </si>
+  <si>
+    <t>パスワード強度不足</t>
+  </si>
+  <si>
+    <t>・パスワード強度が基準を満たさない</t>
+  </si>
+  <si>
+    <t>1.ユーザー登録画面を開く
+2.基準を満たさないパスワードで登録</t>
+  </si>
+  <si>
+    <t>UT-006</t>
+  </si>
+  <si>
+    <t>パスワード確認フィールドの失敗</t>
+  </si>
+  <si>
+    <t>・確認パスワードが一致しない</t>
+  </si>
+  <si>
+    <t>1.ユーザー登録画面を開く
+2.確認フィールドで異なるパスワードを入力</t>
+  </si>
+  <si>
+    <t>ユーザーログイン</t>
+  </si>
+  <si>
+    <t>UT-007</t>
+  </si>
+  <si>
+    <t>正常ログイン</t>
+  </si>
+  <si>
+    <t>・正しいメールアドレス、パスワード</t>
+  </si>
+  <si>
+    <t>1.ログイン画面を開く
+2.必要項目を入力
+3.ログインボタンを押す</t>
+  </si>
+  <si>
+    <t>・ログイン完了
+・投稿一覧画面へ移行</t>
+  </si>
+  <si>
+    <t>UT-008</t>
+  </si>
+  <si>
+    <t>パスワード不備</t>
+  </si>
+  <si>
+    <t>・正しいメール、間違ったパスワード</t>
+  </si>
+  <si>
+    <t>・エラーメッセージ表示
+・ログイン失敗</t>
+  </si>
+  <si>
+    <t>UT-009</t>
+  </si>
+  <si>
+    <t>バリデーションエラー</t>
+  </si>
+  <si>
+    <t>・フィールドが空</t>
+  </si>
+  <si>
+    <t>1.ログイン画面を開く
+3.ログインボタンを押す</t>
+  </si>
+  <si>
+    <t>・バリデーションエラー表示</t>
+  </si>
+  <si>
+    <t>UT-010</t>
+  </si>
+  <si>
+    <t>正常検索</t>
+  </si>
+  <si>
+    <t>・投稿に存在するフリーワード
+・条件を選択</t>
+  </si>
+  <si>
+    <t>1.投稿検索画面を開く
+2.条件を選択、フリーワードを入力
+3.検索ボタンを押す</t>
+  </si>
+  <si>
+    <t>・検索結果表示</t>
+  </si>
+  <si>
+    <t>UT-011</t>
+  </si>
+  <si>
+    <t>検索結果0</t>
+  </si>
+  <si>
+    <t>・投稿に存在しないフリーワード</t>
+  </si>
+  <si>
+    <t>1.投稿検索画面を開く
+2.フリーワードを入力
+3.検索ボタンを押す</t>
+  </si>
+  <si>
+    <t>UT-012</t>
+  </si>
+  <si>
+    <t>・投稿が存在しない条件</t>
+  </si>
+  <si>
+    <t>1.投稿検索画面を開く
+2.条件を選択
+3.検索ボタンを押す</t>
+  </si>
+  <si>
+    <t>UT-013</t>
+  </si>
+  <si>
+    <t>・フィールド未入力</t>
+  </si>
+  <si>
+    <t>1.投稿検索画面を開く
+2.検索ボタンを押す</t>
+  </si>
+  <si>
+    <t>・バリディーションエラー表示</t>
+  </si>
+  <si>
+    <t>UT-014</t>
+  </si>
+  <si>
+    <t>GPS動作</t>
+  </si>
+  <si>
+    <t>・GPSオン</t>
+  </si>
+  <si>
+    <t>1.マップ画面を開く</t>
+  </si>
+  <si>
+    <t>・自分の位置情報が表示される</t>
+  </si>
+  <si>
+    <t>UT-015</t>
+  </si>
+  <si>
+    <t>GPS未動作</t>
+  </si>
+  <si>
+    <t>・GPSオフ</t>
+  </si>
+  <si>
+    <t>・自分の位置情報が表示されない
+・エラーメッセージの表示
+・デフォルトの地図を表示</t>
+  </si>
+  <si>
+    <t>UT-016</t>
+  </si>
+  <si>
+    <t>下書き作成</t>
+  </si>
+  <si>
+    <t>・必要項目の記入
+・ステータス：準備中or旅行中</t>
+  </si>
+  <si>
+    <t>1.プロフィール画面を開く
+2.投稿作成ボタンを押す
+3.必要項目を記入する
+4.ステータスを「準備中or旅行中」を選択
+5.作成ボタンを押す</t>
+  </si>
+  <si>
+    <t>・下書きに投稿が追加される</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>UT-017</t>
+  </si>
+  <si>
+    <t>他ユーザーへ投稿共有</t>
+  </si>
+  <si>
+    <t>・必要項目の記入
+・ステータス：「旅行済」「他ユーザーへ共有」</t>
+  </si>
+  <si>
+    <t>1.プロフィール画面を開く
+2.投稿作成ボタンを押す
+3.必要項目を記入する
+4.ステータスを「旅行済」「他ユーザーへ共有」を選択
+5.作成ボタンを押す</t>
+  </si>
+  <si>
+    <t>・自分のプロフィールに投稿が追加される
+・タイムラインに投稿が表示される</t>
+  </si>
+  <si>
+    <t>UT-018</t>
+  </si>
+  <si>
+    <t>自分のプロフィールにのみ投稿を表示</t>
+  </si>
+  <si>
+    <t>・必要項目の記入
+・ステータス：「旅行済」「自分のプロフィールのみに表示」</t>
+  </si>
+  <si>
+    <t>1.プロフィール画面を開く
+2.投稿作成ボタンを押す
+3.必要項目を記入する
+4.ステータスを「旅行済」「自分のプロフィールのみに表示」を選択
+5.作成ボタンを押す</t>
+  </si>
+  <si>
+    <t>・自分のプロフィールに投稿が追加される</t>
+  </si>
+  <si>
+    <t>UT-019</t>
+  </si>
+  <si>
+    <t>・必要項目が空</t>
+  </si>
+  <si>
+    <t>1.プロフィール画面を開く
+2.投稿作成ボタンを押す
+3.作成ボタンを押す</t>
+  </si>
+  <si>
+    <t>UT-020</t>
+  </si>
+  <si>
+    <t>旅程の時系列不備</t>
+  </si>
+  <si>
+    <t>・旅程作成で時系列が不自然</t>
+  </si>
+  <si>
+    <t>1.プロフィール画面を開く
+2.投稿作成ボタンを押す
+3.必要項目を記入
+4.旅程記入の際、前のスポットを訪れた時間よりも早い時間で次のスポットを記入
+5.作成ボタンを押す</t>
+  </si>
+  <si>
+    <t>・エラーメッセージ表示
+・作成失敗</t>
   </si>
 </sst>
 </file>
@@ -1264,23 +1562,522 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="12.7692307692308" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="36.5288461538462" customWidth="1"/>
+    <col min="4" max="4" width="48.6346153846154" customWidth="1"/>
+    <col min="5" max="5" width="31.9134615384615" customWidth="1"/>
+    <col min="6" max="6" width="10.3076923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="84" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="84" spans="1:7">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="34" spans="1:7">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="34" spans="1:7">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="34" spans="1:7">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="34" spans="1:7">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="51" spans="1:7">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="51" spans="1:7">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="34" spans="1:7">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="8.23076923076923" customWidth="1"/>
+    <col min="2" max="2" width="24.8461538461538" customWidth="1"/>
+    <col min="3" max="3" width="32.7211538461538" customWidth="1"/>
+    <col min="4" max="4" width="40.4038461538462" customWidth="1"/>
+    <col min="5" max="5" width="30.3076923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="51" spans="1:7">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="51" spans="1:7">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="51" spans="1:7">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="34" spans="1:7">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="8.23076923076923" customWidth="1"/>
+    <col min="2" max="2" width="14.6923076923077" customWidth="1"/>
+    <col min="3" max="3" width="30.9615384615385" customWidth="1"/>
+    <col min="4" max="4" width="34.6153846153846" customWidth="1"/>
+    <col min="5" max="5" width="35.3846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="17" spans="1:7">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="51" spans="1:7">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.7692307692308" customWidth="1"/>
-    <col min="2" max="2" width="17.6153846153846" customWidth="1"/>
-    <col min="3" max="3" width="27.3076923076923" customWidth="1"/>
-    <col min="4" max="4" width="32.8557692307692" customWidth="1"/>
-    <col min="5" max="5" width="29.6923076923077" customWidth="1"/>
-    <col min="6" max="6" width="8.15384615384615" customWidth="1"/>
+    <col min="1" max="1" width="8.23076923076923" customWidth="1"/>
+    <col min="2" max="2" width="44.2307692307692" customWidth="1"/>
+    <col min="3" max="3" width="61.375" customWidth="1"/>
+    <col min="4" max="4" width="82.0384615384615" customWidth="1"/>
+    <col min="5" max="5" width="44.7115384615385" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1299,45 +2096,123 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="51" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="84" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>77</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="34" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" ht="84" spans="1:7">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" ht="84" spans="1:7">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" ht="51" spans="1:7">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
+    </row>
+    <row r="6" ht="84" spans="1:7">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
